--- a/Week 2/Data/SampleWork.xlsx
+++ b/Week 2/Data/SampleWork.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="New Sheet" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -443,7 +443,7 @@
   </sheetPr>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -716,7 +716,7 @@
   </sheetPr>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -856,16 +856,16 @@
     <row r="1">
       <c r="B1" s="3" t="inlineStr">
         <is>
-          <t>Amir</t>
+          <t>Bilal</t>
         </is>
       </c>
       <c r="C1" s="3" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -878,7 +878,7 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -891,7 +891,7 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
